--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>66.45210843334378</v>
+        <v>18.10870761384666</v>
       </c>
       <c r="R2">
-        <v>598.0689759000941</v>
+        <v>162.97836852462</v>
       </c>
       <c r="S2">
-        <v>0.01924484392528936</v>
+        <v>0.004731348328477341</v>
       </c>
       <c r="T2">
-        <v>0.01924484392528936</v>
+        <v>0.004731348328477341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>41.14129449238111</v>
+        <v>10.41955627493611</v>
       </c>
       <c r="R3">
-        <v>370.27165043143</v>
+        <v>93.776006474425</v>
       </c>
       <c r="S3">
-        <v>0.01191471286700303</v>
+        <v>0.00272236711841318</v>
       </c>
       <c r="T3">
-        <v>0.01191471286700303</v>
+        <v>0.002722367118413181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>11.94368872917667</v>
+        <v>4.538431447291111</v>
       </c>
       <c r="R4">
-        <v>107.49319856259</v>
+        <v>40.84588302562</v>
       </c>
       <c r="S4">
-        <v>0.003458948570695888</v>
+        <v>0.001185777610414933</v>
       </c>
       <c r="T4">
-        <v>0.003458948570695888</v>
+        <v>0.001185777610414933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>1575.630021783353</v>
+        <v>1695.358962852808</v>
       </c>
       <c r="R5">
-        <v>14180.67019605017</v>
+        <v>15258.23066567527</v>
       </c>
       <c r="S5">
-        <v>0.4563098834348768</v>
+        <v>0.442954514817461</v>
       </c>
       <c r="T5">
-        <v>0.4563098834348769</v>
+        <v>0.4429545148174611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
-        <v>975.4913766543367</v>
+        <v>975.4913766543368</v>
       </c>
       <c r="R6">
         <v>8779.42238988903</v>
       </c>
       <c r="S6">
-        <v>0.2825069021400459</v>
+        <v>0.2548712803142528</v>
       </c>
       <c r="T6">
-        <v>0.2825069021400459</v>
+        <v>0.2548712803142528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>283.19394186571</v>
+        <v>424.8934046278746</v>
       </c>
       <c r="R7">
-        <v>2548.74547679139</v>
+        <v>3824.040641650872</v>
       </c>
       <c r="S7">
-        <v>0.08201430082929305</v>
+        <v>0.1110139244961893</v>
       </c>
       <c r="T7">
-        <v>0.08201430082929305</v>
+        <v>0.1110139244961893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>277.4723894417347</v>
+        <v>382.5705454022906</v>
       </c>
       <c r="R8">
-        <v>2497.251504975612</v>
+        <v>3443.134908620616</v>
       </c>
       <c r="S8">
-        <v>0.08035731227007802</v>
+        <v>0.09995602939271796</v>
       </c>
       <c r="T8">
-        <v>0.08035731227007803</v>
+        <v>0.09995602939271796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>171.7864723431267</v>
+        <v>220.1269914979545</v>
       </c>
       <c r="R9">
-        <v>1546.07825108814</v>
+        <v>1981.14292348159</v>
       </c>
       <c r="S9">
-        <v>0.04975017236715173</v>
+        <v>0.05751362800072055</v>
       </c>
       <c r="T9">
-        <v>0.04975017236715174</v>
+        <v>0.05751362800072055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>49.87116178198</v>
+        <v>95.88040356526844</v>
       </c>
       <c r="R10">
-        <v>448.84045603782</v>
+        <v>862.923632087416</v>
       </c>
       <c r="S10">
-        <v>0.01444292359556614</v>
+        <v>0.02505112992135293</v>
       </c>
       <c r="T10">
-        <v>0.01444292359556614</v>
+        <v>0.02505112992135293</v>
       </c>
     </row>
   </sheetData>
